--- a/stock_historical_data/3mo/BALUFORGE.NS.xlsx
+++ b/stock_historical_data/3mo/BALUFORGE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,113 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B3" t="n">
+        <v>327.5337449318256</v>
+      </c>
+      <c r="C3" t="n">
+        <v>886.7706155466393</v>
+      </c>
+      <c r="D3" t="n">
+        <v>322.2848068095573</v>
+      </c>
+      <c r="E3" t="n">
+        <v>778.992431640625</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>83637400</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>27</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B4" t="n">
+        <v>781.9500122070312</v>
+      </c>
+      <c r="C4" t="n">
+        <v>873.9000244140625</v>
+      </c>
+      <c r="D4" t="n">
+        <v>669.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>787.9000244140625</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>35158185</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
